--- a/config_Release/sys_3dby_xyxtg_config.xlsx
+++ b/config_Release/sys_3dby_xyxtg_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,18 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MiniGameSGXXLPrefab</t>
-  </si>
-  <si>
-    <t>MiniGameSHXXLPrefab</t>
-  </si>
-  <si>
-    <t>MiniGameCSXXLPrefab</t>
-  </si>
-  <si>
-    <t>MiniGameXYXXLPrefab</t>
-  </si>
-  <si>
     <t>game_name_desc|名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,27 +176,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxc_icon_xyxxl_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西游消消乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxc_icon_csxxl_1</t>
+    <t>selet_img|名字图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxc_icon_shxxl_1</t>
+    <r>
+      <t>MiniGameSGXXLPrefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_xyxtg</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxc_icon_xxl_1</t>
+    <r>
+      <t>MiniGameSHXXLPrefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_xyxtg</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selet_img|名字图片</t>
+    <r>
+      <t>MiniGameXYXXLPrefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_xyxtg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MiniGameCSXXLPrefab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_xyxtg</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_xxl_1_xyxtg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_shxxl_1_xyxtg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_xyxxl_1_xyxtg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_csxxl_1_xyxtg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,14 +662,14 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -632,10 +688,10 @@
         <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -655,14 +711,14 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -682,11 +738,11 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>55</v>
@@ -709,14 +765,14 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>47</v>
+      <c r="D4" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -736,14 +792,14 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
+      <c r="D5" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
